--- a/test/xl_transform/main_test/test_data/TestFromExcelToExcel/Source.xlsx
+++ b/test/xl_transform/main_test/test_data/TestFromExcelToExcel/Source.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\ProjectData\ExcelTransformer\test\xl_transform\main_test\test_data\TestFromExcelToExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Spark\Python\ProjectData\ExcelTransformer\test\xl_transform\main_test\test_data\TestFromExcelToExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,12 +74,6 @@
     <t>20</t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
     <t xml:space="preserve">10.00 </t>
   </si>
   <si>
@@ -89,12 +83,6 @@
     <t>0.656070049</t>
   </si>
   <si>
-    <t>-30</t>
-  </si>
-  <si>
-    <t>0.885854449</t>
-  </si>
-  <si>
     <t xml:space="preserve">-10.00 </t>
   </si>
   <si>
@@ -102,12 +90,6 @@
   </si>
   <si>
     <t>-0.344592265</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>-0.027395487</t>
   </si>
   <si>
     <t xml:space="preserve">12.35 </t>
@@ -172,19 +154,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -212,7 +194,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -225,9 +207,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -508,83 +493,83 @@
   <dimension ref="B2:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:G9"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="3" width="14.25" customWidth="1"/>
+    <col min="2" max="3" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:17">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17">
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17">
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17">
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17">
       <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
@@ -602,7 +587,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:17">
       <c r="B10" t="s">
         <v>5</v>
       </c>
@@ -626,7 +611,7 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:17">
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
@@ -636,62 +621,62 @@
       <c r="D11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="4">
+        <v>30</v>
+      </c>
+      <c r="F11" s="4">
+        <v>40</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:17">
       <c r="B12" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="4">
+        <v>-30</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.88585444899999999</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:17">
       <c r="B13" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>-2.7395487E-2</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
